--- a/biology/Botanique/Acacia_triptera/Acacia_triptera.xlsx
+++ b/biology/Botanique/Acacia_triptera/Acacia_triptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia triptera est une espèce de mimosa du genre Acacia. Originaire d'Australie, il pousse à environ 4 m de haut et fait 5 m de diamètre. Il fleurit environ d'août à octobre. Il peut se propager par graines, mais il est préférable de les faire tremper dans l'eau chaude pour ramollir la coque avant de les semer.
 On le trouve dans les régions semi-arides du Queensland, de la Nouvelle-Galles du Sud et du Victoria
